--- a/biology/Microbiologie/Cinetochilidae/Cinetochilidae.xlsx
+++ b/biology/Microbiologie/Cinetochilidae/Cinetochilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cinetochilidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Cinetochilum, dérivé du grec κινετα / kineta, « mouvement », et χειλ / cheil, « lèvre », probablement en référence au « péristome avec une membrane vibrante postérieure débouchant dans la bouche »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Cinetochilum, dérivé du grec κινετα / kineta, « mouvement », et χειλ / cheil, « lèvre », probablement en référence au « péristome avec une membrane vibrante postérieure débouchant dans la bouche ».
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cinetochilidae ont une taille, très petite (&lt;&lt; 80 μm) à petite (&lt; 80 μm) ; une forme, ovoïde à ellipsoïde, généralement aplatie, ressemblant parfois beaucoup à un gant de baseball. Ils vivent en natation libre. Leur ciliation somatique est clairsemée, limitée à la surface ventrale avec un ou plusieurs longs cils caudaux. La zone buccale est relativement grande, médio-ventrale, avec une paroi nervurée prononcée. Dans la stomatogenèse[note 1], les polykinétides oraux 2 et 3 proviennent de scutica ou de vestige de scutica[note 2].
-Leur macronoyau est globulaire à ellipsoïde. Un micronoyau est présent, ainsi que des vacuoles contractiles. Le cytoprocte (anus) occupe toute la zone méridienne de la surface ventrale raccourcie chez certaines espèces. Ils se nourrissant de bactéries et de petits protistes[2].
+Leur macronoyau est globulaire à ellipsoïde. Un micronoyau est présent, ainsi que des vacuoles contractiles. Le cytoprocte (anus) occupe toute la zone méridienne de la surface ventrale raccourcie chez certaines espèces. Ils se nourrissant de bactéries et de petits protistes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cinetochilidae vivent principalement dans des habitats d'eau douce et terrestres ; ils sont également répandus dans des habitats d’eau saumâtres ou marines, mais avec moins d'espèces[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cinetochilidae vivent principalement dans des habitats d'eau douce et terrestres ; ils sont également répandus dans des habitats d’eau saumâtres ou marines, mais avec moins d'espèces.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 septembre 2023)[3] :
-Cinetochilum Perty, 1849 genre type[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 septembre 2023) :
+Cinetochilum Perty, 1849 genre type
 Genre synonyme : Cyclidium O.F. Müller, 1773 pro parte
 Espèce type : Cinetochilum margaritaceum (Ehrenberg, 1831) Perty, 1849
 Espèce synonyme : Cyclidium margaritaceum Ehrenberg, 1831
@@ -619,7 +639,7 @@
 Sathrophilus Corliss, 1960
 Sphenostomella Jankowski, 1985
 Sphenostomella Yankovskij, 1980
-Selon Lynn (2010)[2] :
+Selon Lynn (2010) :
 Cinetochilum Perty, 1849
 Cinetozona Olmo, Tellez, &amp; Esteban, 1998
 Platynematum Foissner, Berger &amp; Kohmann, 1994
@@ -654,9 +674,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cinetochilidae Perty, 1852[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cinetochilidae Perty, 1852.
 </t>
         </is>
       </c>
